--- a/biology/Médecine/Endotoxine/Endotoxine.xlsx
+++ b/biology/Médecine/Endotoxine/Endotoxine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les dénominations exo-/endotoxine sont aujourd'hui obsolètes et abandonnées[réf. nécessaire].
 Se reporter à :
@@ -488,7 +500,7 @@
 Lors de l'infection intestinale, certaines bactéries Gram négatives franchissent la barrière de l'intestin puis sont ingérées notamment par les macrophages. La lyse des bactéries libère alors le LPS dans le sang provoquant un choc septique, réponse inflammatoire générale démesurée, ou syndrome de réponse inflammatoire systémique, pouvant entraîner la mort.
 Elles ne sont libérées que lors de la lyse de ces bactéries et peuvent occasionner une réponse inflammatoire générale démesurée, ou syndrome de réponse inflammatoire systémique, pouvant entraîner la mort. Si l'endotoxine parvient à atteindre la circulation sanguine, elle peut entraîner un choc septique.
 Le LPS est un antigène par sa partie osidique. Il a été utilisé dans les anciens vaccins contre les Salmonella Typhi, Paratyphi A et B (TAB) formés de bactéries tuées par la chaleur. 
-Dans les médicaments injectables, ne doivent pas être présents des microorganismes vivants (stérilité) ni de molécules provoquant la fièvre (apyrogénicité). Le LPS est une des molécules pyrogènes [1].
+Dans les médicaments injectables, ne doivent pas être présents des microorganismes vivants (stérilité) ni de molécules provoquant la fièvre (apyrogénicité). Le LPS est une des molécules pyrogènes .
 </t>
         </is>
       </c>
